--- a/Sicherung/NN400P2/Test NN DS400.xlsx
+++ b/Sicherung/NN400P2/Test NN DS400.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena\Documents\BAP\Sicherung\NN400P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18514" windowHeight="7971" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18514" windowHeight="7971"/>
   </bookViews>
   <sheets>
     <sheet name="abwechselnd" sheetId="1" r:id="rId1"/>
@@ -75,21 +75,6 @@
     <t>Momentum:</t>
   </si>
   <si>
-    <t>NNPlayer_HL30_400.nnet</t>
-  </si>
-  <si>
-    <t>NNPlayer_HL60_400.nnet</t>
-  </si>
-  <si>
-    <t>NNPlayer_HL120_400.nnet</t>
-  </si>
-  <si>
-    <t>NNPlayer_HL180_400.nnet</t>
-  </si>
-  <si>
-    <t>NNPlayer_HL240_400.nnet</t>
-  </si>
-  <si>
     <t>Beginner: abwechselnd</t>
   </si>
   <si>
@@ -100,6 +85,21 @@
   </si>
   <si>
     <t>dataset_5x4_3G_p2_400.txt</t>
+  </si>
+  <si>
+    <t>NNPlayer2_HL30_400.nnet</t>
+  </si>
+  <si>
+    <t>NNPlayer2_HL60_400.nnet</t>
+  </si>
+  <si>
+    <t>NNPlayer2_HL120_400.nnet</t>
+  </si>
+  <si>
+    <t>NNPlayer2_HL180_400.nnet</t>
+  </si>
+  <si>
+    <t>NNPlayer2_HL240_400.nnet</t>
   </si>
 </sst>
 </file>
@@ -183,20 +183,18 @@
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -209,25 +207,27 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -604,76 +604,76 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="A10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="13">
         <v>30</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>1685</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="13">
         <f>AVERAGE(C10:C14)</f>
         <v>1698</v>
       </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
         <f>AVERAGE(E10:E14)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="2">
         <v>8315</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="13">
         <f>AVERAGE(G10:G14)</f>
         <v>8302</v>
       </c>
@@ -683,110 +683,110 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5">
+      <c r="A11" s="15"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="2">
         <v>1664</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5">
+      <c r="D11" s="13"/>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="2">
         <v>8336</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="13"/>
       <c r="I11">
         <f t="shared" ref="I11:I34" si="0">SUM(C11,E11,G11)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5">
+      <c r="A12" s="15"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="2">
         <v>1682</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5">
+      <c r="D12" s="13"/>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="2">
         <v>8318</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="13"/>
       <c r="I12">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5">
+      <c r="A13" s="15"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="2">
         <v>1728</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5">
+      <c r="D13" s="13"/>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="2">
         <v>8272</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="13"/>
       <c r="I13">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5">
+      <c r="A14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="2">
         <v>1731</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5">
+      <c r="D14" s="13"/>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="2">
         <v>8269</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="13"/>
       <c r="I14">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="6">
+      <c r="A15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="8">
         <v>60</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="3">
         <v>2933</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="8">
         <f>AVERAGE(C15:C19)</f>
         <v>2855.4</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="3">
         <v>645</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="8">
         <f t="shared" ref="F15" si="1">AVERAGE(E15:E19)</f>
         <v>627.6</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="3">
         <v>6422</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="8">
         <f t="shared" ref="H15" si="2">AVERAGE(G15:G19)</f>
         <v>6517</v>
       </c>
@@ -796,110 +796,110 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="10"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="11">
+      <c r="A16" s="16"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="3">
         <v>2841</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="11">
+      <c r="D16" s="8"/>
+      <c r="E16" s="3">
         <v>602</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="11">
+      <c r="F16" s="8"/>
+      <c r="G16" s="3">
         <v>6557</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="8"/>
       <c r="I16">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="10"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="12">
+      <c r="A17" s="16"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="4">
         <v>2807</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="12">
+      <c r="D17" s="8"/>
+      <c r="E17" s="4">
         <v>633</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="12">
+      <c r="F17" s="8"/>
+      <c r="G17" s="4">
         <v>6560</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="8"/>
       <c r="I17">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="10"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="12">
+      <c r="A18" s="16"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="4">
         <v>2818</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="12">
+      <c r="D18" s="8"/>
+      <c r="E18" s="4">
         <v>644</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="12">
+      <c r="F18" s="8"/>
+      <c r="G18" s="4">
         <v>6538</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="8"/>
       <c r="I18">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="10"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="12">
+      <c r="A19" s="16"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="4">
         <v>2878</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="12">
+      <c r="D19" s="8"/>
+      <c r="E19" s="4">
         <v>614</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="12">
+      <c r="F19" s="8"/>
+      <c r="G19" s="4">
         <v>6508</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="8"/>
       <c r="I19">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="7">
+      <c r="A20" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9">
         <v>120</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="5">
         <v>3986</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="9">
         <f t="shared" ref="D20" si="3">AVERAGE(C20:C24)</f>
         <v>4046.4</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="5">
         <v>140</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="9">
         <f t="shared" ref="F20" si="4">AVERAGE(E20:E24)</f>
         <v>132.19999999999999</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="5">
         <v>5874</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="9">
         <f t="shared" ref="H20" si="5">AVERAGE(G20:G24)</f>
         <v>5821.4</v>
       </c>
@@ -909,110 +909,110 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="13"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="14">
+      <c r="A21" s="17"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="5">
         <v>4126</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="14">
+      <c r="D21" s="9"/>
+      <c r="E21" s="5">
         <v>130</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="14">
+      <c r="F21" s="9"/>
+      <c r="G21" s="5">
         <v>5744</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="9"/>
       <c r="I21">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="13"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="14">
+      <c r="A22" s="17"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="5">
         <v>4035</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="14">
+      <c r="D22" s="9"/>
+      <c r="E22" s="5">
         <v>128</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="14">
+      <c r="F22" s="9"/>
+      <c r="G22" s="5">
         <v>5837</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="9"/>
       <c r="I22">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="13"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="14">
+      <c r="A23" s="17"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="5">
         <v>4050</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="14">
+      <c r="D23" s="9"/>
+      <c r="E23" s="5">
         <v>127</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="14">
+      <c r="F23" s="9"/>
+      <c r="G23" s="5">
         <v>5823</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="9"/>
       <c r="I23">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="13"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="14">
+      <c r="A24" s="17"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="5">
         <v>4035</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="14">
+      <c r="D24" s="9"/>
+      <c r="E24" s="5">
         <v>136</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="14">
+      <c r="F24" s="9"/>
+      <c r="G24" s="5">
         <v>5829</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="9"/>
       <c r="I24">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="8">
+      <c r="A25" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="10">
         <v>180</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="6">
         <v>2868</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="10">
         <f t="shared" ref="D25" si="6">AVERAGE(C25:C29)</f>
         <v>2894</v>
       </c>
-      <c r="E25" s="16">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
         <f t="shared" ref="F25" si="7">AVERAGE(E25:E29)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="6">
         <v>7132</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="10">
         <f t="shared" ref="H25" si="8">AVERAGE(G25:G29)</f>
         <v>7106</v>
       </c>
@@ -1022,110 +1022,110 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="15"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="16">
+      <c r="A26" s="18"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="6">
         <v>2906</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="16">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="16">
+      <c r="D26" s="10"/>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="6">
         <v>7094</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="10"/>
       <c r="I26">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="15"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="16">
+      <c r="A27" s="18"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="6">
         <v>2893</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="16">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="16">
+      <c r="D27" s="10"/>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="6">
         <v>7107</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="10"/>
       <c r="I27">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="15"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="16">
+      <c r="A28" s="18"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="6">
         <v>2913</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="16">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="16">
+      <c r="D28" s="10"/>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="6">
         <v>7087</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="H28" s="10"/>
       <c r="I28">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="15"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="16">
+      <c r="A29" s="18"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="6">
         <v>2890</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="16">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="16">
+      <c r="D29" s="10"/>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="6">
         <v>7110</v>
       </c>
-      <c r="H29" s="8"/>
+      <c r="H29" s="10"/>
       <c r="I29">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="9">
+      <c r="A30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="11">
         <v>240</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="7">
         <v>3056</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="11">
         <f t="shared" ref="D30" si="9">AVERAGE(C30:C34)</f>
         <v>2989.2</v>
       </c>
-      <c r="E30" s="18">
-        <v>0</v>
-      </c>
-      <c r="F30" s="9">
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
         <f>AVERAGE(E30:E34)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="7">
         <v>6944</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="11">
         <f t="shared" ref="H30" si="10">AVERAGE(G30:G34)</f>
         <v>7010.8</v>
       </c>
@@ -1135,80 +1135,80 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="17"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="18">
+      <c r="A31" s="14"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="7">
         <v>2964</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="18">
-        <v>0</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="18">
+      <c r="D31" s="11"/>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="7">
         <v>7036</v>
       </c>
-      <c r="H31" s="9"/>
+      <c r="H31" s="11"/>
       <c r="I31">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="17"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="18">
+      <c r="A32" s="14"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="7">
         <v>2935</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="18">
-        <v>0</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="18">
+      <c r="D32" s="11"/>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="7">
         <v>7065</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H32" s="11"/>
       <c r="I32">
         <f>SUM(C32,E32,G32)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="17"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="18">
+      <c r="A33" s="14"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="7">
         <v>3017</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="18">
-        <v>0</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="18">
+      <c r="D33" s="11"/>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="7">
         <v>6983</v>
       </c>
-      <c r="H33" s="9"/>
+      <c r="H33" s="11"/>
       <c r="I33">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="17"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="18">
+      <c r="A34" s="14"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="7">
         <v>2974</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="18">
-        <v>0</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="18">
+      <c r="D34" s="11"/>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="7">
         <v>7026</v>
       </c>
-      <c r="H34" s="9"/>
+      <c r="H34" s="11"/>
       <c r="I34">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1216,26 +1216,11 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="H10:H14"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
     <mergeCell ref="D15:D19"/>
     <mergeCell ref="D20:D24"/>
     <mergeCell ref="D25:D29"/>
@@ -1246,6 +1231,21 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A25:A29"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="H30:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1255,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -1315,76 +1315,76 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="A10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="13">
         <v>30</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>3457</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="13">
         <f>AVERAGE(C10:C14)</f>
         <v>3471.2</v>
       </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
         <f>AVERAGE(E10:E14)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="2">
         <v>6543</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="13">
         <f>AVERAGE(G10:G14)</f>
         <v>6528.8</v>
       </c>
@@ -1394,110 +1394,110 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5">
+      <c r="A11" s="15"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="2">
         <v>3456</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5">
+      <c r="D11" s="13"/>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="2">
         <v>6544</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="13"/>
       <c r="I11">
         <f t="shared" ref="I11:I34" si="0">SUM(C11,E11,G11)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5">
+      <c r="A12" s="15"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="2">
         <v>3512</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5">
+      <c r="D12" s="13"/>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="2">
         <v>6488</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="13"/>
       <c r="I12">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5">
+      <c r="A13" s="15"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="2">
         <v>3404</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5">
+      <c r="D13" s="13"/>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="2">
         <v>6596</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="13"/>
       <c r="I13">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5">
+      <c r="A14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="2">
         <v>3527</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5">
+      <c r="D14" s="13"/>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="2">
         <v>6473</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="13"/>
       <c r="I14">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="6">
+      <c r="A15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="8">
         <v>60</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="3">
         <v>4700</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="8">
         <f>AVERAGE(C15:C19)</f>
         <v>4713.3999999999996</v>
       </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
         <f t="shared" ref="F15" si="1">AVERAGE(E15:E19)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="3">
         <v>5300</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="8">
         <f t="shared" ref="H15" si="2">AVERAGE(G15:G19)</f>
         <v>5286.6</v>
       </c>
@@ -1507,110 +1507,110 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="10"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="11">
+      <c r="A16" s="16"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="3">
         <v>4733</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="11">
+      <c r="D16" s="8"/>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="3">
         <v>5267</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="8"/>
       <c r="I16">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="10"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="12">
+      <c r="A17" s="16"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="4">
         <v>4681</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="12">
+      <c r="D17" s="8"/>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="4">
         <v>5319</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="8"/>
       <c r="I17">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="10"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="12">
+      <c r="A18" s="16"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="4">
         <v>4691</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="12">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="12">
+      <c r="D18" s="8"/>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="4">
         <v>5309</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="8"/>
       <c r="I18">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="10"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="12">
+      <c r="A19" s="16"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="4">
         <v>4762</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="12">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="12">
+      <c r="D19" s="8"/>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="4">
         <v>5238</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="8"/>
       <c r="I19">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="7">
+      <c r="A20" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9">
         <v>120</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="5">
         <v>3605</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="9">
         <f t="shared" ref="D20" si="3">AVERAGE(C20:C24)</f>
         <v>3563.8</v>
       </c>
-      <c r="E20" s="14">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
         <f t="shared" ref="F20" si="4">AVERAGE(E20:E24)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="5">
         <v>6395</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="9">
         <f t="shared" ref="H20" si="5">AVERAGE(G20:G24)</f>
         <v>6436.2</v>
       </c>
@@ -1620,110 +1620,110 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="13"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="14">
+      <c r="A21" s="17"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="5">
         <v>3607</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="14">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="14">
+      <c r="D21" s="9"/>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="5">
         <v>6393</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="9"/>
       <c r="I21">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="13"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="14">
+      <c r="A22" s="17"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="5">
         <v>3593</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="14">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="14">
+      <c r="D22" s="9"/>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="5">
         <v>6407</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="9"/>
       <c r="I22">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="13"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="14">
+      <c r="A23" s="17"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="5">
         <v>3448</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="14">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="14">
+      <c r="D23" s="9"/>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="5">
         <v>6552</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="9"/>
       <c r="I23">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="13"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="14">
+      <c r="A24" s="17"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="5">
         <v>3566</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="14">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="14">
+      <c r="D24" s="9"/>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="5">
         <v>6434</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="9"/>
       <c r="I24">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="8">
+      <c r="A25" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="10">
         <v>180</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="6">
         <v>3227</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="10">
         <f t="shared" ref="D25" si="6">AVERAGE(C25:C29)</f>
         <v>3282.4</v>
       </c>
-      <c r="E25" s="16">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
         <f t="shared" ref="F25" si="7">AVERAGE(E25:E29)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="6">
         <v>6773</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="10">
         <f t="shared" ref="H25" si="8">AVERAGE(G25:G29)</f>
         <v>6717.6</v>
       </c>
@@ -1733,110 +1733,110 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="15"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="16">
+      <c r="A26" s="18"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="6">
         <v>3326</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="16">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="16">
+      <c r="D26" s="10"/>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="6">
         <v>6674</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="10"/>
       <c r="I26">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="15"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="16">
+      <c r="A27" s="18"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="6">
         <v>3262</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="16">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="16">
+      <c r="D27" s="10"/>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="6">
         <v>6738</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="10"/>
       <c r="I27">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="15"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="16">
+      <c r="A28" s="18"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="6">
         <v>3282</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="16">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="16">
+      <c r="D28" s="10"/>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="6">
         <v>6718</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="H28" s="10"/>
       <c r="I28">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="15"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="16">
+      <c r="A29" s="18"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="6">
         <v>3315</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="16">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="16">
+      <c r="D29" s="10"/>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="6">
         <v>6685</v>
       </c>
-      <c r="H29" s="8"/>
+      <c r="H29" s="10"/>
       <c r="I29">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="9">
+      <c r="A30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="11">
         <v>240</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="7">
         <v>3444</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="11">
         <f t="shared" ref="D30" si="9">AVERAGE(C30:C34)</f>
         <v>3433.6</v>
       </c>
-      <c r="E30" s="18">
-        <v>0</v>
-      </c>
-      <c r="F30" s="9">
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
         <f>AVERAGE(E30:E34)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="7">
         <v>6556</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="11">
         <f t="shared" ref="H30" si="10">AVERAGE(G30:G34)</f>
         <v>6566.4</v>
       </c>
@@ -1846,80 +1846,80 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="17"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="18">
+      <c r="A31" s="14"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="7">
         <v>3425</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="18">
-        <v>0</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="18">
+      <c r="D31" s="11"/>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="7">
         <v>6575</v>
       </c>
-      <c r="H31" s="9"/>
+      <c r="H31" s="11"/>
       <c r="I31">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="17"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="18">
+      <c r="A32" s="14"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="7">
         <v>3375</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="18">
-        <v>0</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="18">
+      <c r="D32" s="11"/>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="7">
         <v>6625</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H32" s="11"/>
       <c r="I32">
         <f>SUM(C32,E32,G32)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="17"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="18">
+      <c r="A33" s="14"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="7">
         <v>3502</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="18">
-        <v>0</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="18">
+      <c r="D33" s="11"/>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="7">
         <v>6498</v>
       </c>
-      <c r="H33" s="9"/>
+      <c r="H33" s="11"/>
       <c r="I33">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="17"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="18">
+      <c r="A34" s="14"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="7">
         <v>3422</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="18">
-        <v>0</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="18">
+      <c r="D34" s="11"/>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="7">
         <v>6578</v>
       </c>
-      <c r="H34" s="9"/>
+      <c r="H34" s="11"/>
       <c r="I34">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1927,36 +1927,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="H30:H34"/>
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="D25:D29"/>
     <mergeCell ref="F25:F29"/>
     <mergeCell ref="H25:H29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="H10:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sicherung/NN400P2/Test NN DS400.xlsx
+++ b/Sicherung/NN400P2/Test NN DS400.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -180,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -195,8 +195,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,11 +210,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -227,6 +227,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -653,27 +668,27 @@
       <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="14">
         <v>30</v>
       </c>
       <c r="C10" s="2">
         <v>1685</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="19">
         <f>AVERAGE(C10:C14)</f>
         <v>1698</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="19">
         <f>AVERAGE(E10:E14)</f>
         <v>0</v>
       </c>
       <c r="G10" s="2">
         <v>8315</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="19">
         <f>AVERAGE(G10:G14)</f>
         <v>8302</v>
       </c>
@@ -684,19 +699,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="15"/>
-      <c r="B11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="2">
         <v>1664</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="2">
         <v>8336</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="19"/>
       <c r="I11">
         <f t="shared" ref="I11:I34" si="0">SUM(C11,E11,G11)</f>
         <v>10000</v>
@@ -704,19 +719,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="15"/>
-      <c r="B12" s="13"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="2">
         <v>1682</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="2">
         <v>8318</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="19"/>
       <c r="I12">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -724,19 +739,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="15"/>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="2">
         <v>1728</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="2">
         <v>8272</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="19"/>
       <c r="I13">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -744,19 +759,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="15"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="2">
         <v>1731</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="2">
         <v>8269</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="19"/>
       <c r="I14">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -766,27 +781,27 @@
       <c r="A15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="13">
         <v>60</v>
       </c>
       <c r="C15" s="3">
         <v>2933</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="20">
         <f>AVERAGE(C15:C19)</f>
         <v>2855.4</v>
       </c>
       <c r="E15" s="3">
         <v>645</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="20">
         <f t="shared" ref="F15" si="1">AVERAGE(E15:E19)</f>
         <v>627.6</v>
       </c>
       <c r="G15" s="3">
         <v>6422</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="20">
         <f t="shared" ref="H15" si="2">AVERAGE(G15:G19)</f>
         <v>6517</v>
       </c>
@@ -797,19 +812,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="16"/>
-      <c r="B16" s="8"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="3">
         <v>2841</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="3">
         <v>602</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="3">
         <v>6557</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="20"/>
       <c r="I16">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -817,19 +832,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="16"/>
-      <c r="B17" s="8"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="4">
         <v>2807</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="4">
         <v>633</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="4">
         <v>6560</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="20"/>
       <c r="I17">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -837,19 +852,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
-      <c r="B18" s="8"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="4">
         <v>2818</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="4">
         <v>644</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="4">
         <v>6538</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="20"/>
       <c r="I18">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -857,19 +872,19 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="16"/>
-      <c r="B19" s="8"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="4">
         <v>2878</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="4">
         <v>614</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="4">
         <v>6508</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="20"/>
       <c r="I19">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -885,21 +900,21 @@
       <c r="C20" s="5">
         <v>3986</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="21">
         <f t="shared" ref="D20" si="3">AVERAGE(C20:C24)</f>
         <v>4046.4</v>
       </c>
       <c r="E20" s="5">
         <v>140</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="21">
         <f t="shared" ref="F20" si="4">AVERAGE(E20:E24)</f>
         <v>132.19999999999999</v>
       </c>
       <c r="G20" s="5">
         <v>5874</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="21">
         <f t="shared" ref="H20" si="5">AVERAGE(G20:G24)</f>
         <v>5821.4</v>
       </c>
@@ -914,15 +929,15 @@
       <c r="C21" s="5">
         <v>4126</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="5">
         <v>130</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="5">
         <v>5744</v>
       </c>
-      <c r="H21" s="9"/>
+      <c r="H21" s="21"/>
       <c r="I21">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -934,15 +949,15 @@
       <c r="C22" s="5">
         <v>4035</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="5">
         <v>128</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="5">
         <v>5837</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="21"/>
       <c r="I22">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -954,15 +969,15 @@
       <c r="C23" s="5">
         <v>4050</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="5">
         <v>127</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="5">
         <v>5823</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="21"/>
       <c r="I23">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -974,15 +989,15 @@
       <c r="C24" s="5">
         <v>4035</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="5">
         <v>136</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="5">
         <v>5829</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="21"/>
       <c r="I24">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -998,21 +1013,21 @@
       <c r="C25" s="6">
         <v>2868</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="22">
         <f t="shared" ref="D25" si="6">AVERAGE(C25:C29)</f>
         <v>2894</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="22">
         <f t="shared" ref="F25" si="7">AVERAGE(E25:E29)</f>
         <v>0</v>
       </c>
       <c r="G25" s="6">
         <v>7132</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="22">
         <f t="shared" ref="H25" si="8">AVERAGE(G25:G29)</f>
         <v>7106</v>
       </c>
@@ -1027,15 +1042,15 @@
       <c r="C26" s="6">
         <v>2906</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="6">
         <v>0</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="6">
         <v>7094</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="22"/>
       <c r="I26">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1047,15 +1062,15 @@
       <c r="C27" s="6">
         <v>2893</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="6">
         <v>0</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="6">
         <v>7107</v>
       </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="22"/>
       <c r="I27">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1067,15 +1082,15 @@
       <c r="C28" s="6">
         <v>2913</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="6">
         <v>0</v>
       </c>
-      <c r="F28" s="10"/>
+      <c r="F28" s="22"/>
       <c r="G28" s="6">
         <v>7087</v>
       </c>
-      <c r="H28" s="10"/>
+      <c r="H28" s="22"/>
       <c r="I28">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1087,22 +1102,22 @@
       <c r="C29" s="6">
         <v>2890</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="6">
         <v>0</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="6">
         <v>7110</v>
       </c>
-      <c r="H29" s="10"/>
+      <c r="H29" s="22"/>
       <c r="I29">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="11">
@@ -1111,21 +1126,21 @@
       <c r="C30" s="7">
         <v>3056</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="23">
         <f t="shared" ref="D30" si="9">AVERAGE(C30:C34)</f>
         <v>2989.2</v>
       </c>
       <c r="E30" s="7">
         <v>0</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="23">
         <f>AVERAGE(E30:E34)</f>
         <v>0</v>
       </c>
       <c r="G30" s="7">
         <v>6944</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="23">
         <f t="shared" ref="H30" si="10">AVERAGE(G30:G34)</f>
         <v>7010.8</v>
       </c>
@@ -1135,80 +1150,80 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="14"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="11"/>
       <c r="C31" s="7">
         <v>2964</v>
       </c>
-      <c r="D31" s="11"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="7">
         <v>0</v>
       </c>
-      <c r="F31" s="11"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="7">
         <v>7036</v>
       </c>
-      <c r="H31" s="11"/>
+      <c r="H31" s="23"/>
       <c r="I31">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="14"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="11"/>
       <c r="C32" s="7">
         <v>2935</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="7">
         <v>0</v>
       </c>
-      <c r="F32" s="11"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="7">
         <v>7065</v>
       </c>
-      <c r="H32" s="11"/>
+      <c r="H32" s="23"/>
       <c r="I32">
         <f>SUM(C32,E32,G32)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="14"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="11"/>
       <c r="C33" s="7">
         <v>3017</v>
       </c>
-      <c r="D33" s="11"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="7">
         <v>0</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="23"/>
       <c r="G33" s="7">
         <v>6983</v>
       </c>
-      <c r="H33" s="11"/>
+      <c r="H33" s="23"/>
       <c r="I33">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="14"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="11"/>
       <c r="C34" s="7">
         <v>2974</v>
       </c>
-      <c r="D34" s="11"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="7">
         <v>0</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="23"/>
       <c r="G34" s="7">
         <v>7026</v>
       </c>
-      <c r="H34" s="11"/>
+      <c r="H34" s="23"/>
       <c r="I34">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1216,6 +1231,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B25:B29"/>
@@ -1231,21 +1261,6 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A25:A29"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="H10:H14"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="H30:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1256,7 +1271,7 @@
   <dimension ref="A2:I34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1364,27 +1379,27 @@
       <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="14">
         <v>30</v>
       </c>
       <c r="C10" s="2">
         <v>3457</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="19">
         <f>AVERAGE(C10:C14)</f>
         <v>3471.2</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="14">
         <f>AVERAGE(E10:E14)</f>
         <v>0</v>
       </c>
       <c r="G10" s="2">
         <v>6543</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="19">
         <f>AVERAGE(G10:G14)</f>
         <v>6528.8</v>
       </c>
@@ -1395,19 +1410,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="15"/>
-      <c r="B11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="2">
         <v>3456</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="2">
         <v>6544</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="19"/>
       <c r="I11">
         <f t="shared" ref="I11:I34" si="0">SUM(C11,E11,G11)</f>
         <v>10000</v>
@@ -1415,19 +1430,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="15"/>
-      <c r="B12" s="13"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="2">
         <v>3512</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="2">
         <v>6488</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="19"/>
       <c r="I12">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1435,19 +1450,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="15"/>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="2">
         <v>3404</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="2">
         <v>6596</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="19"/>
       <c r="I13">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1455,19 +1470,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="15"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="2">
         <v>3527</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="2">
         <v>6473</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="19"/>
       <c r="I14">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1477,27 +1492,27 @@
       <c r="A15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="13">
         <v>60</v>
       </c>
       <c r="C15" s="3">
         <v>4700</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="20">
         <f>AVERAGE(C15:C19)</f>
         <v>4713.3999999999996</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="13">
         <f t="shared" ref="F15" si="1">AVERAGE(E15:E19)</f>
         <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>5300</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="20">
         <f t="shared" ref="H15" si="2">AVERAGE(G15:G19)</f>
         <v>5286.6</v>
       </c>
@@ -1508,19 +1523,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="16"/>
-      <c r="B16" s="8"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="3">
         <v>4733</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="3">
         <v>0</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="3">
         <v>5267</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="20"/>
       <c r="I16">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1528,19 +1543,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="16"/>
-      <c r="B17" s="8"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="4">
         <v>4681</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="4">
         <v>5319</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="20"/>
       <c r="I17">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1548,19 +1563,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
-      <c r="B18" s="8"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="4">
         <v>4691</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="4">
         <v>0</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="4">
         <v>5309</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="20"/>
       <c r="I18">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1568,19 +1583,19 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="16"/>
-      <c r="B19" s="8"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="4">
         <v>4762</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="4">
         <v>0</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="4">
         <v>5238</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="20"/>
       <c r="I19">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1596,7 +1611,7 @@
       <c r="C20" s="5">
         <v>3605</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="21">
         <f t="shared" ref="D20" si="3">AVERAGE(C20:C24)</f>
         <v>3563.8</v>
       </c>
@@ -1610,7 +1625,7 @@
       <c r="G20" s="5">
         <v>6395</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="21">
         <f t="shared" ref="H20" si="5">AVERAGE(G20:G24)</f>
         <v>6436.2</v>
       </c>
@@ -1625,7 +1640,7 @@
       <c r="C21" s="5">
         <v>3607</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="5">
         <v>0</v>
       </c>
@@ -1633,7 +1648,7 @@
       <c r="G21" s="5">
         <v>6393</v>
       </c>
-      <c r="H21" s="9"/>
+      <c r="H21" s="21"/>
       <c r="I21">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1645,7 +1660,7 @@
       <c r="C22" s="5">
         <v>3593</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="5">
         <v>0</v>
       </c>
@@ -1653,7 +1668,7 @@
       <c r="G22" s="5">
         <v>6407</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="21"/>
       <c r="I22">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1665,7 +1680,7 @@
       <c r="C23" s="5">
         <v>3448</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="5">
         <v>0</v>
       </c>
@@ -1673,7 +1688,7 @@
       <c r="G23" s="5">
         <v>6552</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="21"/>
       <c r="I23">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1685,7 +1700,7 @@
       <c r="C24" s="5">
         <v>3566</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="5">
         <v>0</v>
       </c>
@@ -1693,7 +1708,7 @@
       <c r="G24" s="5">
         <v>6434</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="21"/>
       <c r="I24">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1709,7 +1724,7 @@
       <c r="C25" s="6">
         <v>3227</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="22">
         <f t="shared" ref="D25" si="6">AVERAGE(C25:C29)</f>
         <v>3282.4</v>
       </c>
@@ -1723,7 +1738,7 @@
       <c r="G25" s="6">
         <v>6773</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="22">
         <f t="shared" ref="H25" si="8">AVERAGE(G25:G29)</f>
         <v>6717.6</v>
       </c>
@@ -1738,7 +1753,7 @@
       <c r="C26" s="6">
         <v>3326</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="6">
         <v>0</v>
       </c>
@@ -1746,7 +1761,7 @@
       <c r="G26" s="6">
         <v>6674</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="22"/>
       <c r="I26">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1758,7 +1773,7 @@
       <c r="C27" s="6">
         <v>3262</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="6">
         <v>0</v>
       </c>
@@ -1766,7 +1781,7 @@
       <c r="G27" s="6">
         <v>6738</v>
       </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="22"/>
       <c r="I27">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1778,7 +1793,7 @@
       <c r="C28" s="6">
         <v>3282</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="6">
         <v>0</v>
       </c>
@@ -1786,7 +1801,7 @@
       <c r="G28" s="6">
         <v>6718</v>
       </c>
-      <c r="H28" s="10"/>
+      <c r="H28" s="22"/>
       <c r="I28">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1798,7 +1813,7 @@
       <c r="C29" s="6">
         <v>3315</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="6">
         <v>0</v>
       </c>
@@ -1806,14 +1821,14 @@
       <c r="G29" s="6">
         <v>6685</v>
       </c>
-      <c r="H29" s="10"/>
+      <c r="H29" s="22"/>
       <c r="I29">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="11">
@@ -1822,7 +1837,7 @@
       <c r="C30" s="7">
         <v>3444</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="23">
         <f t="shared" ref="D30" si="9">AVERAGE(C30:C34)</f>
         <v>3433.6</v>
       </c>
@@ -1836,7 +1851,7 @@
       <c r="G30" s="7">
         <v>6556</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="23">
         <f t="shared" ref="H30" si="10">AVERAGE(G30:G34)</f>
         <v>6566.4</v>
       </c>
@@ -1846,12 +1861,12 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="14"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="11"/>
       <c r="C31" s="7">
         <v>3425</v>
       </c>
-      <c r="D31" s="11"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="7">
         <v>0</v>
       </c>
@@ -1859,19 +1874,19 @@
       <c r="G31" s="7">
         <v>6575</v>
       </c>
-      <c r="H31" s="11"/>
+      <c r="H31" s="23"/>
       <c r="I31">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="14"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="11"/>
       <c r="C32" s="7">
         <v>3375</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="7">
         <v>0</v>
       </c>
@@ -1879,19 +1894,19 @@
       <c r="G32" s="7">
         <v>6625</v>
       </c>
-      <c r="H32" s="11"/>
+      <c r="H32" s="23"/>
       <c r="I32">
         <f>SUM(C32,E32,G32)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="14"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="11"/>
       <c r="C33" s="7">
         <v>3502</v>
       </c>
-      <c r="D33" s="11"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="7">
         <v>0</v>
       </c>
@@ -1899,19 +1914,19 @@
       <c r="G33" s="7">
         <v>6498</v>
       </c>
-      <c r="H33" s="11"/>
+      <c r="H33" s="23"/>
       <c r="I33">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="14"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="11"/>
       <c r="C34" s="7">
         <v>3422</v>
       </c>
-      <c r="D34" s="11"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="7">
         <v>0</v>
       </c>
@@ -1919,7 +1934,7 @@
       <c r="G34" s="7">
         <v>6578</v>
       </c>
-      <c r="H34" s="11"/>
+      <c r="H34" s="23"/>
       <c r="I34">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -1927,36 +1942,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="D10:D14"/>
     <mergeCell ref="F10:F14"/>
     <mergeCell ref="H10:H14"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="H25:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
